--- a/step3_noise_generation/error_reports_xlsx/deascii_errors.xlsx
+++ b/step3_noise_generation/error_reports_xlsx/deascii_errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ataturk</t>
+          <t>(Ataturk),</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atatürk</t>
+          <t>(Atatürk),</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>According to other sources, his teacher wanted to distinguish Ataturk from another student who was also named Mustafa.</t>
+          <t>In an atmosphere of turmoil, Sultan Mehmed VI dispatched general Mustafa Kemal Pasha (Ataturk), to restore order; however, he became an enabler and leader of Turkish Nationalist resistance.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>According to other sources, his teacher wanted to distinguish Atatürk from another student who was also named Mustafa.</t>
+          <t>In an atmosphere of turmoil, Sultan Mehmed VI dispatched general Mustafa Kemal Pasha (Atatürk), to restore order; however, he became an enabler and leader of Turkish Nationalist resistance.</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dogu</t>
+          <t>Izmir,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Doğu</t>
+          <t>İzmir,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Excavations in 2008, in the Dogu Garaji plot, uncovered remains dating to the 3rd century BC, suggesting that Attaleia was a rebuilding and expansion of an earlier town.</t>
+          <t>Other major cities include Izmir, Bursa, and Antalya.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Excavations in 2008, in the Doğu Garajı plot, uncovered remains dating to the 3rd century BC, suggesting that Attaleia was a rebuilding and expansion of an earlier town.</t>
+          <t>Other major cities include İzmir, Bursa, and Antalya.</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nevsehir</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nevşehir</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Today, the touristic Cappadocia Region is located in Nevsehir province.</t>
+          <t>Until the 1923 population exchange between Greece and Turkey, Izmir had a very large Greek population.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Today, the touristic Cappadocia Region is located in Nevşehir province.</t>
+          <t>Until the 1923 population exchange between Greece and Turkey, İzmir had a very large Greek population.</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Duluk,</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dülük,</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>During its early history, Aintab was largely a fortress overshadowed by the city of Duluk, some 12 km to the north.</t>
+          <t>Erdogan responded to the 2022 Russian invasion of Ukraine by closing the Bosphorus to Russian naval reinforcements, brokering a deal between Russia and Ukraine regarding the export of grain, and mediating a prisoner exchange.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>During its early history, Aintab was largely a fortress overshadowed by the city of Dülük, some 12 km to the north.</t>
+          <t>Erdoğan responded to the 2022 Russian invasion of Ukraine by closing the Bosphorus to Russian naval reinforcements, brokering a deal between Russia and Ukraine regarding the export of grain, and mediating a prisoner exchange.</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Istanbul-Izmit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>Istanbul-İzmit</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The region of Izmir was situated on the southern fringes of the Yortan culture in Anatolia's prehistory, knowledge of which is almost entirely drawn from its cemeteries.</t>
+          <t>The Istanbul-Izmit area is one of the main industrial regions in Turkey.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The region of İzmir was situated on the southern fringes of the Yortan culture in Anatolia's prehistory, knowledge of which is almost entirely drawn from its cemeteries.</t>
+          <t>The Istanbul-İzmit area is one of the main industrial regions in Turkey.</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yesilova</t>
+          <t>Ataturk.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yeşilova</t>
+          <t>Atatürk.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The 2004 discovery of Yesilova Hoyuk and the neighboring Yassitepe, in the small delta of Meles River, now the Bornova plain, reset the starting date of the city's past further back than previously thought.</t>
+          <t>The Republic was proclaimed on 29 October 1923, modelled on the reforms initiated by its founder and first president, Mustafa Kemal Ataturk.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The 2004 discovery of Yeşilova Höyük and the neighboring Yassıtepe, in the small delta of Meles River, now the Bornova plain, reset the starting date of the city's past further back than previously thought.</t>
+          <t>The Republic was proclaimed on 29 October 1923, modelled on the reforms initiated by its founder and first president, Mustafa Kemal Atatürk.</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Nizam-i</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>Nizam-ı</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Erdogan responded to the 2022 Russian invasion of Ukraine by closing the Bosphorus to Russian naval reinforcements, brokering a deal between Russia and Ukraine regarding the export of grain, and mediating a prisoner exchange.</t>
+          <t>Sultan Selim III founded the first secular military schools by establishing the new military unit, Nizam-i Cedid, as early as 1792.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Erdoğan responded to the 2022 Russian invasion of Ukraine by closing the Bosphorus to Russian naval reinforcements, brokering a deal between Russia and Ukraine regarding the export of grain, and mediating a prisoner exchange.</t>
+          <t>Sultan Selim III founded the first secular military schools by establishing the new military unit, Nizam-ı Cedid, as early as 1792.</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Izmir,</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>İzmir,</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Other major cities include Izmir, Bursa, and Antalya.</t>
+          <t>Izmir has more than 3,000 years of recorded urban history, and up to 8,500 years of history as a human settlement since the Neolithic period.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Other major cities include İzmir, Bursa, and Antalya.</t>
+          <t>İzmir has more than 3,000 years of recorded urban history, and up to 8,500 years of history as a human settlement since the Neolithic period.</t>
         </is>
       </c>
     </row>
@@ -672,22 +672,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Gokalp</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>Gökalp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The modern name Izmir is the Turkish rendering of the Greek name Smyrna ( SMUR-nə; Greek: Σμύρνη, romanized: Smýrni/Smýrnē).</t>
+          <t>In 1998 he was convicted for inciting religious hatred and banned from politics after reciting a poem by Ziya Gokalp that compared mosques to barracks and the faithful to an army.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The modern name İzmir is the Turkish rendering of the Greek name Smyrna ( SMUR-nə; Greek: Σμύρνη, romanized: Smýrni/Smýrnē).</t>
+          <t>In 1998 he was convicted for inciting religious hatred and banned from politics after reciting a poem by Ziya Gökalp that compared mosques to barracks and the faithful to an army.</t>
         </is>
       </c>
     </row>
@@ -699,22 +699,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kutahya-Eskisehir</t>
+          <t>Nevsehir,</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kütahya-Eskişehir</t>
+          <t>Nevşehir,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The Greeks emerged victorious in the Battle of Kutahya-Eskisehir and drove on Ankara.</t>
+          <t>It is largely in the provinces of Nevsehir, Kayseri, Aksaray, Kirsehir, Sivas and Nigde.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The Greeks emerged victorious in the Battle of Kütahya-Eskişehir and drove on Ankara.</t>
+          <t>It is largely in the provinces of Nevşehir, Kayseri, Aksaray, Kırşehir, Sivas and Niğde.</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hursidabat</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hurşidabat</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The 19th-century Armenian travelling priest Byjiskian called the city by other, native names, including Hursidabat and Ozinis.</t>
+          <t>Recep Tayyip Erdogan (born 26 February 1954) is a Turkish politician who has been the president of Turkey since 2014.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The 19th-century Armenian travelling priest Byjiskian called the city by other, native names, including Hurşidabat and Ozinis.</t>
+          <t>Recep Tayyip Erdoğan (born 26 February 1954) is a Turkish politician who has been the president of Turkey since 2014.</t>
         </is>
       </c>
     </row>
@@ -753,22 +753,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gokalp</t>
+          <t>Duluk,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gökalp</t>
+          <t>Dülük,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>In 1998 he was convicted for inciting religious hatred and banned from politics after reciting a poem by Ziya Gokalp that compared mosques to barracks and the faithful to an army.</t>
+          <t>During its early history, Aintab was largely a fortress overshadowed by the city of Duluk, some 12 km to the north.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>In 1998 he was convicted for inciting religious hatred and banned from politics after reciting a poem by Ziya Gökalp that compared mosques to barracks and the faithful to an army.</t>
+          <t>During its early history, Aintab was largely a fortress overshadowed by the city of Dülük, some 12 km to the north.</t>
         </is>
       </c>
     </row>
@@ -780,22 +780,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Following the 1994 local elections, Erdogan was elected mayor of Istanbul.</t>
+          <t>The region of Izmir was situated on the southern fringes of the Yortan culture in Anatolia's prehistory, knowledge of which is almost entirely drawn from its cemeteries.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Following the 1994 local elections, Erdoğan was elected mayor of Istanbul.</t>
+          <t>The region of İzmir was situated on the southern fringes of the Yortan culture in Anatolia's prehistory, knowledge of which is almost entirely drawn from its cemeteries.</t>
         </is>
       </c>
     </row>
@@ -807,22 +807,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Ataturk's</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>François</t>
+          <t>Atatürk's</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The current president is Emmanuel Macron, who succeeded Francois Hollande on 14 May 2017 following the 2017 presidential election, and was inaugurated for a second term on 7 May 2022 following the 2022 presidential election.</t>
+          <t>The current form was achieved by Ataturk's Reforms.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The current president is Emmanuel Macron, who succeeded François Hollande on 14 May 2017 following the 2017 presidential election, and was inaugurated for a second term on 7 May 2022 following the 2022 presidential election.</t>
+          <t>The current form was achieved by Atatürk's Reforms.</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Beyoglu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>Beyoğlu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Izmir has more than 3,000 years of recorded urban history, and up to 8,500 years of history as a human settlement since the Neolithic period.</t>
+          <t>Becoming active in local politics, he was elected Welfare Party's Beyoglu district chair in 1984 and Istanbul chair in 1985.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>İzmir has more than 3,000 years of recorded urban history, and up to 8,500 years of history as a human settlement since the Neolithic period.</t>
+          <t>Becoming active in local politics, he was elected Welfare Party's Beyoğlu district chair in 1984 and Istanbul chair in 1985.</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Catalhoyuk</t>
+          <t>Ismet</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Çatalhöyük</t>
+          <t>İsmet</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Other important Anatolian Neolithic sites include Catalhoyuk and Alaca Hoyuk.</t>
+          <t>Ismet Pasha (Inonu)'s organization of militia into a regular army paid off when Ankara forces fought the Greeks in the First and Second Battle of Inonu.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Other important Anatolian Neolithic sites include Çatalhöyük and Alaca Höyük.</t>
+          <t>İsmet Pasha (İnönü)'s organization of militia into a regular army paid off when Ankara forces fought the Greeks in the First and Second Battle of İnönü.</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ataturk</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Atatürk</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The Turkish Parliament granted him the surname Ataturk in 1934, which means "Father of the Turks", in recognition of the role he played in building the modern Turkish Republic.</t>
+          <t>In 2025, Erdogan oversaw the arrest of Istanbul mayor Ekrem Imamoglu and his subsequent disqualification from the upcoming 2028 presidential election, for which he was considered the opposition front-runner, leading to ongoing widespread protests.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The Turkish Parliament granted him the surname Atatürk in 1934, which means "Father of the Turks", in recognition of the role he played in building the modern Turkish Republic.</t>
+          <t>In 2025, Erdoğan oversaw the arrest of Istanbul mayor Ekrem İmamoğlu and his subsequent disqualification from the upcoming 2028 presidential election, for which he was considered the opposition front-runner, leading to ongoing widespread protests.</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Erdogan led the AKP to a landslide victory in the election for the Grand National Assembly in 2002, and became prime minister after winning a by-election in Siirt in 2003.</t>
+          <t>Erdogan led the AKP to two more election victories in 2007 and 2011.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Erdoğan led the AKP to a landslide victory in the election for the Grand National Assembly in 2002, and became prime minister after winning a by-election in Siirt in 2003.</t>
+          <t>Erdoğan led the AKP to two more election victories in 2007 and 2011.</t>
         </is>
       </c>
     </row>
@@ -942,22 +942,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Namik</t>
+          <t>Cumhurbaskani</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Namık</t>
+          <t>Cumhurbaşkanı</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Andrew Mango suggests that he may have chosen the name himself as a tribute to the nationalist poet Namik Kemal.</t>
+          <t>The president of Turkey is referred to as Cumhurbaskani ("Republic leader"), and previously archaically as Cumhurreisi or Reis-i Cumhur, also meaning "head of the republic/people".</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Andrew Mango suggests that he may have chosen the name himself as a tribute to the nationalist poet Namık Kemal.</t>
+          <t>The president of Turkey is referred to as Cumhurbaşkanı ("Republic leader"), and previously archaically as Cumhurreisi or Reis-i Cumhur, also meaning "head of the republic/people".</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nizam-i</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nizam-ı</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sultan Selim III founded the first secular military schools by establishing the new military unit, Nizam-i Cedid, as early as 1792.</t>
+          <t>In May 2022, Erdogan temporarily blocked Finland and Sweden from joining NATO.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sultan Selim III founded the first secular military schools by establishing the new military unit, Nizam-ı Cedid, as early as 1792.</t>
+          <t>In May 2022, Erdoğan temporarily blocked Finland and Sweden from joining NATO.</t>
         </is>
       </c>
     </row>
@@ -996,22 +996,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ismet</t>
+          <t>Kurtulmus</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>İsmet</t>
+          <t>Kurtulmuş</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ismet Pasha (Inonu)'s organization of militia into a regular army paid off when Ankara forces fought the Greeks in the First and Second Battle of Inonu.</t>
+          <t>Numan Kurtulmus was elected after the snap elections on 7 June 2023.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>İsmet Pasha (İnönü)'s organization of militia into a regular army paid off when Ankara forces fought the Greeks in the First and Second Battle of İnönü.</t>
+          <t>Numan Kurtulmuş was elected after the snap elections on 7 June 2023.</t>
         </is>
       </c>
     </row>
@@ -1023,22 +1023,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(Istanbul).</t>
+          <t>Francois-René</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(İstanbul).</t>
+          <t>François-René</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>These campaigns were directed against Greece in the west, Armenia in the east, France in the south, loyalists and separatists in various cities, and British and Ottoman troops around Constantinople (Istanbul).</t>
+          <t>The first established use of the term in a political context originated in 1818 with Francois-René de Chateaubriand during the period of Bourbon Restoration that sought to roll back the policies of the French Revolution and establish social order.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>These campaigns were directed against Greece in the west, Armenia in the east, France in the south, loyalists and separatists in various cities, and British and Ottoman troops around Constantinople (İstanbul).</t>
+          <t>The first established use of the term in a political context originated in 1818 with François-René de Chateaubriand during the period of Bourbon Restoration that sought to roll back the policies of the French Revolution and establish social order.</t>
         </is>
       </c>
     </row>
@@ -1050,22 +1050,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gobekli</t>
+          <t>(Osmanli)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Göbekli</t>
+          <t>(Osmanlı)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Gobekli Tepe is close to 12,000 years old.</t>
+          <t>The Turkish word for "Ottoman" (Osmanli) originally referred to the tribal followers of Osman in the 14th century.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Göbekli Tepe is close to 12,000 years old.</t>
+          <t>The Turkish word for "Ottoman" (Osmanlı) originally referred to the tribal followers of Osman in the 14th century.</t>
         </is>
       </c>
     </row>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Uskuplu</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Üsküplü</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>His second name Kemal (meaning 'perfection' or 'maturity' in Arabic) was given to him by his mathematics teacher, Captain Uskuplu Mustafa Efendi.</t>
+          <t>Recep Tayyip Erdogan is the 12th and current president of Turkey, who has held the office since 28 August 2014.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>His second name Kemal (meaning 'perfection' or 'maturity' in Arabic) was given to him by his mathematics teacher, Captain Üsküplü Mustafa Efendi.</t>
+          <t>Recep Tayyip Erdoğan is the 12th and current president of Turkey, who has held the office since 28 August 2014.</t>
         </is>
       </c>
     </row>
@@ -1104,22 +1104,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Dolmabahce</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>Dolmabahçe</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>As of 2025 end of year estimate, Izmir Province has a total population of 4,504,184 while Izmir city is home to around 3.5 million inhabitants.</t>
+          <t>He died on 10 November 1938 at Dolmabahce Palace in Istanbul, at the age of 57; he was succeeded as president by his long-time prime minister Ismet Inonu.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>As of 2025 end of year estimate, İzmir Province has a total population of 4,504,184 while İzmir city is home to around 3.5 million inhabitants.</t>
+          <t>He died on 10 November 1938 at Dolmabahçe Palace in Istanbul, at the age of 57; he was succeeded as president by his long-time prime minister İsmet İnönü.</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bahceli</t>
+          <t>Ataturk,</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bahçeli</t>
+          <t>Atatürk,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Devlet Bahceli MHP temporarily served as the speaker, as it is customary for the oldest member of the TBMM to serve as speaker during a hung parliament.</t>
+          <t>Among the former presidents, Mustafa Kemal Ataturk, Ismet Inonu and Celâl Bayar served as presidents affiliated with a political party.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Devlet Bahçeli MHP temporarily served as the speaker, as it is customary for the oldest member of the TBMM to serve as speaker during a hung parliament.</t>
+          <t>Among the former presidents, Mustafa Kemal Atatürk, İsmet İnönü and Celâl Bayar served as presidents affiliated with a political party.</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Ataturk</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>Atatürk</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>In 2014, Erdogan became the country's first directly elected president.</t>
+          <t>As the president of the newly formed Turkish Republic, Ataturk initiated political, economic, and cultural reforms to build a republican and secular nation-state.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>In 2014, Erdoğan became the country's first directly elected president.</t>
+          <t>As the president of the newly formed Turkish Republic, Atatürk initiated political, economic, and cultural reforms to build a republican and secular nation-state.</t>
         </is>
       </c>
     </row>
@@ -1185,22 +1185,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Ataturk</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>Atatürk</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>In 2025, Erdogan oversaw the arrest of Istanbul mayor Ekrem Imamoglu and his subsequent disqualification from the upcoming 2028 presidential election, for which he was considered the opposition front-runner, leading to ongoing widespread protests.</t>
+          <t>The Turkish Parliament granted him the surname Ataturk in 1934, which means "Father of the Turks", in recognition of the role he played in building the modern Turkish Republic.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>In 2025, Erdoğan oversaw the arrest of Istanbul mayor Ekrem İmamoğlu and his subsequent disqualification from the upcoming 2028 presidential election, for which he was considered the opposition front-runner, leading to ongoing widespread protests.</t>
+          <t>The Turkish Parliament granted him the surname Atatürk in 1934, which means "Father of the Turks", in recognition of the role he played in building the modern Turkish Republic.</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Duluk.</t>
+          <t>Hursidabat</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dülük.</t>
+          <t>Hurşidabat</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Aintab came to prominence after an earthquake in the 14th century devastated Duluk.</t>
+          <t>The 19th-century Armenian travelling priest Byjiskian called the city by other, native names, including Hursidabat and Ozinis.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aintab came to prominence after an earthquake in the 14th century devastated Dülük.</t>
+          <t>The 19th-century Armenian travelling priest Byjiskian called the city by other, native names, including Hurşidabat and Ozinis.</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(Ataturk),</t>
+          <t>Uskuplu</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(Atatürk),</t>
+          <t>Üsküplü</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>In an atmosphere of turmoil, Sultan Mehmed VI dispatched general Mustafa Kemal Pasha (Ataturk), to restore order; however, he became an enabler and leader of Turkish Nationalist resistance.</t>
+          <t>His second name Kemal (meaning 'perfection' or 'maturity' in Arabic) was given to him by his mathematics teacher, Captain Uskuplu Mustafa Efendi.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>In an atmosphere of turmoil, Sultan Mehmed VI dispatched general Mustafa Kemal Pasha (Atatürk), to restore order; however, he became an enabler and leader of Turkish Nationalist resistance.</t>
+          <t>His second name Kemal (meaning 'perfection' or 'maturity' in Arabic) was given to him by his mathematics teacher, Captain Üsküplü Mustafa Efendi.</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Nevsehir</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>Nevşehir</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Erdogan was released from prison in 1999 and formed the AKP, abandoning openly Islamist policies.</t>
+          <t>Today, the touristic Cappadocia Region is located in Nevsehir province.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Erdoğan was released from prison in 1999 and formed the AKP, abandoning openly Islamist policies.</t>
+          <t>Today, the touristic Cappadocia Region is located in Nevşehir province.</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1293,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Ataturk</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>Atatürk</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>It hosts the annual Izmir International Fair.</t>
+          <t>In the voting held on the same day, Mustafa Kemal Ataturk was unanimously elected as the first president.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>It hosts the annual İzmir International Fair.</t>
+          <t>In the voting held on the same day, Mustafa Kemal Atatürk was unanimously elected as the first president.</t>
         </is>
       </c>
     </row>
@@ -1320,22 +1320,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(Izmir),</t>
+          <t>Erdogan's</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(İzmir),</t>
+          <t>Erdoğan's</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>In an attempt to establish control over the power vacuum in Anatolia, the Allies persuaded Greek Prime Minister Eleftherios Venizelos to launch an expeditionary force into Anatolia and occupy Smyrna (Izmir), beginning the Turkish War of Independence.</t>
+          <t>Erdogan's presidency has been marked by democratic backsliding and a shift towards a more authoritarian style of government.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>In an attempt to establish control over the power vacuum in Anatolia, the Allies persuaded Greek Prime Minister Eleftherios Venizelos to launch an expeditionary force into Anatolia and occupy Smyrna (İzmir), beginning the Turkish War of Independence.</t>
+          <t>Erdoğan's presidency has been marked by democratic backsliding and a shift towards a more authoritarian style of government.</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Izmir,</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>İzmir,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>It is on the Aegean coast of Anatolia, and is the capital of Izmir Province.</t>
+          <t>The war ended with the recapture of Izmir, the Chanak Crisis and another armistice in Mudanya.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>It is on the Aegean coast of Anatolia, and is the capital of İzmir Province.</t>
+          <t>The war ended with the recapture of İzmir, the Chanak Crisis and another armistice in Mudanya.</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ataturk.</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Atatürk.</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>The Republic was proclaimed on 29 October 1923, modelled on the reforms initiated by its founder and first president, Mustafa Kemal Ataturk.</t>
+          <t>It is on the Aegean coast of Anatolia, and is the capital of Izmir Province.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The Republic was proclaimed on 29 October 1923, modelled on the reforms initiated by its founder and first president, Mustafa Kemal Atatürk.</t>
+          <t>It is on the Aegean coast of Anatolia, and is the capital of İzmir Province.</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Francois-René</t>
+          <t>Duluk.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>François-René</t>
+          <t>Dülük.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The first established use of the term in a political context originated in 1818 with Francois-René de Chateaubriand during the period of Bourbon Restoration that sought to roll back the policies of the French Revolution and establish social order.</t>
+          <t>Aintab came to prominence after an earthquake in the 14th century devastated Duluk.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The first established use of the term in a political context originated in 1818 with François-René de Chateaubriand during the period of Bourbon Restoration that sought to roll back the policies of the French Revolution and establish social order.</t>
+          <t>Aintab came to prominence after an earthquake in the 14th century devastated Dülük.</t>
         </is>
       </c>
     </row>
@@ -1428,22 +1428,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Izmir,</t>
+          <t>Catalhoyuk</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>İzmir,</t>
+          <t>Çatalhöyük</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The war ended with the recapture of Izmir, the Chanak Crisis and another armistice in Mudanya.</t>
+          <t>Other important Anatolian Neolithic sites include Catalhoyuk and Alaca Hoyuk.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The war ended with the recapture of İzmir, the Chanak Crisis and another armistice in Mudanya.</t>
+          <t>Other important Anatolian Neolithic sites include Çatalhöyük and Alaca Höyük.</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Inan,</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>İnan,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Present-day Izmir is an important port, and is home to multiple universities.</t>
+          <t>According to Afet Inan, his teacher gave this name "in admiration of [Ataturk's] capability and maturity".</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Present-day İzmir is an important port, and is home to multiple universities.</t>
+          <t>According to Afet İnan, his teacher gave this name "in admiration of [Atatürk's] capability and maturity".</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Osterreich),</t>
+          <t>Erdogan's</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Österreich),</t>
+          <t>Erdoğan's</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The chancellor of Austria, officially the federal chancellor of the Republic of Austria (German: Bundeskanzler der Republik Osterreich), is the head of government of the Republic of Austria.</t>
+          <t>Coming from an Islamist background and promoting socially conservative policies, Turkey has experienced increasing authoritarianism, democratic backsliding and suppression of dissent under Erdogan's rule.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The chancellor of Austria, officially the federal chancellor of the Republic of Austria (German: Bundeskanzler der Republik Österreich), is the head of government of the Republic of Austria.</t>
+          <t>Coming from an Islamist background and promoting socially conservative policies, Turkey has experienced increasing authoritarianism, democratic backsliding and suppression of dissent under Erdoğan's rule.</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Namik</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>Namık</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Erdogan led the AKP to two more election victories in 2007 and 2011.</t>
+          <t>Andrew Mango suggests that he may have chosen the name himself as a tribute to the nationalist poet Namik Kemal.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Erdoğan led the AKP to two more election victories in 2007 and 2011.</t>
+          <t>Andrew Mango suggests that he may have chosen the name himself as a tribute to the nationalist poet Namık Kemal.</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ataturk,</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Atatürk,</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Among the former presidents, Mustafa Kemal Ataturk, Ismet Inonu and Celâl Bayar served as presidents affiliated with a political party.</t>
+          <t>In medieval times, Westerners used forms like Smire, Zmirra, Esmira, Ismira, which was rendered as Izmir into Turkish, originally written as ازمير with the Ottoman Turkish alphabet.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Among the former presidents, Mustafa Kemal Atatürk, İsmet İnönü and Celâl Bayar served as presidents affiliated with a political party.</t>
+          <t>In medieval times, Westerners used forms like Smire, Zmirra, Esmira, Ismira, which was rendered as İzmir into Turkish, originally written as ازمير with the Ottoman Turkish alphabet.</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ataturk's</t>
+          <t>Turk</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Atatürk's</t>
+          <t>Türk</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The current form was achieved by Ataturk's Reforms.</t>
+          <t>The Turkish Armed Forces (TAF; Turkish: Turk Silahli Kuvvetleri, TSK) are the military forces of the Republic of Turkey.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The current form was achieved by Atatürk's Reforms.</t>
+          <t>The Turkish Armed Forces (TAF; Turkish: Türk Silahlı Kuvvetleri, TSK) are the military forces of the Republic of Turkey.</t>
         </is>
       </c>
     </row>
@@ -1617,22 +1617,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(Osmanli)</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(Osmanlı)</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The Turkish word for "Ottoman" (Osmanli) originally referred to the tribal followers of Osman in the 14th century.</t>
+          <t>Following the 1994 local elections, Erdogan was elected mayor of Istanbul.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The Turkish word for "Ottoman" (Osmanlı) originally referred to the tribal followers of Osman in the 14th century.</t>
+          <t>Following the 1994 local elections, Erdoğan was elected mayor of Istanbul.</t>
         </is>
       </c>
     </row>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Ataturk</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Atatürk</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The city hosts a large part of Turkish football and sports in general, with clubs such as Galatasaray, Fenerbahce and Besiktas.</t>
+          <t>Ataturk attempted rapprochement with Iran, Yugoslavia, Iraq, and Greece, as well as the creation of the Balkan Pact that resisted the expansionist aggressions of Fascist Italy and Tsarist Bulgaria during the interwar period of the 1930s.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The city hosts a large part of Turkish football and sports in general, with clubs such as Galatasaray, Fenerbahçe and Beşiktaş.</t>
+          <t>Atatürk attempted rapprochement with Iran, Yugoslavia, Iraq, and Greece, as well as the creation of the Balkan Pact that resisted the expansionist aggressions of Fascist Italy and Tsarist Bulgaria during the interwar period of the 1930s.</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>(Izmir),</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>İzmir</t>
+          <t>(İzmir),</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>In medieval times, Westerners used forms like Smire, Zmirra, Esmira, Ismira, which was rendered as Izmir into Turkish, originally written as ازمير with the Ottoman Turkish alphabet.</t>
+          <t>In an attempt to establish control over the power vacuum in Anatolia, the Allies agreed to launch a Greek peacekeeping force and occupy Smyrna (Izmir), inflaming sectarian tensions and beginning the Turkish War of Independence.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>In medieval times, Westerners used forms like Smire, Zmirra, Esmira, Ismira, which was rendered as İzmir into Turkish, originally written as ازمير with the Ottoman Turkish alphabet.</t>
+          <t>In an attempt to establish control over the power vacuum in Anatolia, the Allies agreed to launch a Greek peacekeeping force and occupy Smyrna (İzmir), inflaming sectarian tensions and beginning the Turkish War of Independence.</t>
         </is>
       </c>
     </row>
@@ -1698,22 +1698,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nevsehir,</t>
+          <t>Izmir)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nevşehir,</t>
+          <t>İzmir)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>It is largely in the provinces of Nevsehir, Kayseri, Aksaray, Kirsehir, Sivas and Nigde.</t>
+          <t>Izmir (sometimes Izmir) was adopted in English and most foreign languages after Turkey adopted the Latin alphabet in 1928 and urged other countries to use the city's Turkish name.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>It is largely in the provinces of Nevşehir, Kayseri, Aksaray, Kırşehir, Sivas and Niğde.</t>
+          <t>Izmir (sometimes İzmir) was adopted in English and most foreign languages after Turkey adopted the Latin alphabet in 1928 and urged other countries to use the city's Turkish name.</t>
         </is>
       </c>
     </row>
@@ -1725,22 +1725,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Ataturk's</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>Atatürk's</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>With the 2007 constitutional amendment referendum, it was decided that the president would be elected by the people, and in the first elections held on 10 August 2014 after this change, Recep Tayyip Erdogan was elected president by the people.</t>
+          <t>Ataturk's personality cult and the Kemalist historiography developed around it have had significant and ongoing influences on Turkey's political culture and historical narrative.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>With the 2007 constitutional amendment referendum, it was decided that the president would be elected by the people, and in the first elections held on 10 August 2014 after this change, Recep Tayyip Erdoğan was elected president by the people.</t>
+          <t>Atatürk's personality cult and the Kemalist historiography developed around it have had significant and ongoing influences on Turkey's political culture and historical narrative.</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Beyoglu</t>
+          <t>Ataturk's</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Beyoğlu</t>
+          <t>Atatürk's</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Becoming active in local politics, he was elected Welfare Party's Beyoglu district chair in 1984 and Istanbul chair in 1985.</t>
+          <t>In 1928, as one of Ataturk's reforms in the early years of the Republic of Turkey, the Perso-Arabic script-based Ottoman Turkish alphabet was replaced with the Latin script-based Turkish alphabet.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Becoming active in local politics, he was elected Welfare Party's Beyoğlu district chair in 1984 and Istanbul chair in 1985.</t>
+          <t>In 1928, as one of Atatürk's reforms in the early years of the Republic of Turkey, the Perso-Arabic script-based Ottoman Turkish alphabet was replaced with the Latin script-based Turkish alphabet.</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Erdogan's</t>
+          <t>Ataturk</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Erdoğan's</t>
+          <t>Atatürk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Erdogan's presidency has been marked by democratic backsliding and a shift towards a more authoritarian style of government.</t>
+          <t>According to Alkan, Ataturk seems to have embraced the name Kemal during his army years.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Erdoğan's presidency has been marked by democratic backsliding and a shift towards a more authoritarian style of government.</t>
+          <t>According to Alkan, Atatürk seems to have embraced the name Kemal during his army years.</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Dogu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>Doğu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Erdogan was born in Beyoglu, Istanbul, and studied at the Aksaray Academy of Economic and Commercial Sciences, before working as a consultant and senior manager in the private sector.</t>
+          <t>Excavations in 2008, in the Dogu Garaji plot, uncovered remains dating to the 3rd century BC, suggesting that Attaleia was a rebuilding and expansion of an earlier town.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Erdoğan was born in Beyoğlu, Istanbul, and studied at the Aksaray Academy of Economic and Commercial Sciences, before working as a consultant and senior manager in the private sector.</t>
+          <t>Excavations in 2008, in the Doğu Garajı plot, uncovered remains dating to the 3rd century BC, suggesting that Attaleia was a rebuilding and expansion of an earlier town.</t>
         </is>
       </c>
     </row>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Erdogan</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Erdoğan</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Recep Tayyip Erdogan was born on 26 February 1954 in Kasimpasa, Beyoglu to a modest conservative Muslim family.</t>
+          <t>It hosts the annual Izmir International Fair.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Recep Tayyip Erdoğan was born on 26 February 1954 in Kasımpaşa, Beyoğlu to a modest conservative Muslim family.</t>
+          <t>It hosts the annual İzmir International Fair.</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>François</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Francois Mitterrand and Jacques Chirac were previously the only presidents to date who have served a full two terms (14 years for the former, 12 years for the latter).</t>
+          <t>Erdogan was released from prison in 1999 and formed the AKP, abandoning openly Islamist policies.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>François Mitterrand and Jacques Chirac were previously the only presidents to date who have served a full two terms (14 years for the former, 12 years for the latter).</t>
+          <t>Erdoğan was released from prison in 1999 and formed the AKP, abandoning openly Islamist policies.</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kultepe.</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kültepe.</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Anatolia's historical records start with clay tablets from approximately around 2000 BC that were found in modern-day Kultepe.</t>
+          <t>The modern name Izmir is the Turkish rendering of the Greek name Smyrna ( SMUR-nə; Greek: Σμύρνη, romanized: Smýrni/Smýrnē).</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Anatolia's historical records start with clay tablets from approximately around 2000 BC that were found in modern-day Kültepe.</t>
+          <t>The modern name İzmir is the Turkish rendering of the Greek name Smyrna ( SMUR-nə; Greek: Σμύρνη, romanized: Smýrni/Smýrnē).</t>
         </is>
       </c>
     </row>
@@ -1914,22 +1914,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Inan,</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>İnan,</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>According to Afet Inan, his teacher gave this name "in admiration of [Ataturk's] capability and maturity".</t>
+          <t>Present-day Izmir is an important port, and is home to multiple universities.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>According to Afet İnan, his teacher gave this name "in admiration of [Atatürk's] capability and maturity".</t>
+          <t>Present-day İzmir is an important port, and is home to multiple universities.</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ataturk</t>
+          <t>Yesilova</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Atatürk</t>
+          <t>Yeşilova</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>In the voting held on the same day, Mustafa Kemal Ataturk was unanimously elected as the first president.</t>
+          <t>The 2004 discovery of Yesilova Hoyuk and the neighboring Yassitepe, in the small delta of Meles River, now the Bornova plain, reset the starting date of the city's past further back than previously thought.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>In the voting held on the same day, Mustafa Kemal Atatürk was unanimously elected as the first president.</t>
+          <t>The 2004 discovery of Yeşilova Höyük and the neighboring Yassıtepe, in the small delta of Meles River, now the Bornova plain, reset the starting date of the city's past further back than previously thought.</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nurdagi</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nurdağı</t>
+          <t>François</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>The destruction was reportedly much higher in the rural districts of Nurdagi and Islahiye, although a number of historic sites within the city such as mosques and Gaziantep Castle also suffered significant damages.</t>
+          <t>Francois Mitterrand and Jacques Chirac were previously the only presidents to date who have served a full two terms (14 years for the former, 12 years for the latter).</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The destruction was reportedly much higher in the rural districts of Nurdağı and Islahiye, although a number of historic sites within the city such as mosques and Gaziantep Castle also suffered significant damages.</t>
+          <t>François Mitterrand and Jacques Chirac were previously the only presidents to date who have served a full two terms (14 years for the former, 12 years for the latter).</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ataturk</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Atatürk</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ataturk attempted rapprochement with Iran, Yugoslavia, Iraq, and Greece, as well as the creation of the Balkan Pact that resisted the expansionist aggressions of Fascist Italy and Tsarist Bulgaria during the interwar period of the 1930s.</t>
+          <t>Erdogan led the AKP to a landslide victory in the election for the Grand National Assembly in 2002, and became prime minister after winning a by-election in Siirt in 2003.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Atatürk attempted rapprochement with Iran, Yugoslavia, Iraq, and Greece, as well as the creation of the Balkan Pact that resisted the expansionist aggressions of Fascist Italy and Tsarist Bulgaria during the interwar period of the 1930s.</t>
+          <t>Erdoğan led the AKP to a landslide victory in the election for the Grand National Assembly in 2002, and became prime minister after winning a by-election in Siirt in 2003.</t>
         </is>
       </c>
     </row>
@@ -2022,22 +2022,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kurtulmus</t>
+          <t>Bahceli</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kurtulmuş</t>
+          <t>Bahçeli</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Numan Kurtulmus was elected after the snap elections on 7 June 2023.</t>
+          <t>Devlet Bahceli MHP temporarily served as the speaker, as it is customary for the oldest member of the TBMM to serve as speaker during a hung parliament.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Numan Kurtulmuş was elected after the snap elections on 7 June 2023.</t>
+          <t>Devlet Bahçeli MHP temporarily served as the speaker, as it is customary for the oldest member of the TBMM to serve as speaker during a hung parliament.</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>As the president of the newly formed Turkish Republic, Ataturk initiated political, economic, and cultural reforms to build a republican and secular nation-state.</t>
+          <t>According to other sources, his teacher wanted to distinguish Ataturk from another student who was also named Mustafa.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>As the president of the newly formed Turkish Republic, Atatürk initiated political, economic, and cultural reforms to build a republican and secular nation-state.</t>
+          <t>According to other sources, his teacher wanted to distinguish Atatürk from another student who was also named Mustafa.</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>In May 2022, Erdogan temporarily blocked Finland and Sweden from joining NATO.</t>
+          <t>With the 2007 constitutional amendment referendum, it was decided that the president would be elected by the people, and in the first elections held on 10 August 2014 after this change, Recep Tayyip Erdogan was elected president by the people.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>In May 2022, Erdoğan temporarily blocked Finland and Sweden from joining NATO.</t>
+          <t>With the 2007 constitutional amendment referendum, it was decided that the president would be elected by the people, and in the first elections held on 10 August 2014 after this change, Recep Tayyip Erdoğan was elected president by the people.</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Turkce</t>
+          <t>Izmir</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Türkçe</t>
+          <t>İzmir</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The everyday Turkish, known as kaba Turkce or 'vulgar Turkish', spoken by the less-educated, lower and also rural members of Ottoman society, contained a higher percentage of native vocabulary and served as the basis for the modern Turkish language.</t>
+          <t>As of 2025 end of year estimate, Izmir Province has a total population of 4,504,184 while Izmir city is home to around 3.5 million inhabitants.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The everyday Turkish, known as kaba Türkçe or 'vulgar Turkish', spoken by the less-educated, lower and also rural members of Ottoman society, contained a higher percentage of native vocabulary and served as the basis for the modern Turkish language.</t>
+          <t>As of 2025 end of year estimate, İzmir Province has a total population of 4,504,184 while İzmir city is home to around 3.5 million inhabitants.</t>
         </is>
       </c>
     </row>
@@ -2130,22 +2130,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dolmabahce</t>
+          <t>Erdogan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dolmabahçe</t>
+          <t>Erdoğan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>He died on 10 November 1938 at Dolmabahce Palace in Istanbul, at the age of 57; he was succeeded as president by his long-time prime minister Ismet Inonu.</t>
+          <t>Erdogan was born in Beyoglu, Istanbul, and studied at the Aksaray Academy of Economic and Commercial Sciences, before working as a consultant and senior manager in the private sector.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>He died on 10 November 1938 at Dolmabahçe Palace in Istanbul, at the age of 57; he was succeeded as president by his long-time prime minister İsmet İnönü.</t>
+          <t>Erdoğan was born in Beyoğlu, Istanbul, and studied at the Aksaray Academy of Economic and Commercial Sciences, before working as a consultant and senior manager in the private sector.</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2157,373 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ataturk</t>
+          <t>Gobekli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Atatürk</t>
+          <t>Göbekli</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>According to Alkan, Ataturk seems to have embraced the name Kemal during his army years.</t>
+          <t>Gobekli Tepe is close to 12,000 years old.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>According to Alkan, Atatürk seems to have embraced the name Kemal during his army years.</t>
+          <t>Göbekli Tepe is close to 12,000 years old.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Kultepe.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Kültepe.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Anatolia's historical records start with clay tablets from approximately around 2000 BC that were found in modern-day Kultepe.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Anatolia's historical records start with clay tablets from approximately around 2000 BC that were found in modern-day Kültepe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>The city hosts a large part of Turkish football and sports in general, with clubs such as Galatasaray, Fenerbahce and Besiktas.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>The city hosts a large part of Turkish football and sports in general, with clubs such as Galatasaray, Fenerbahçe and Beşiktaş.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(Izmir),</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>(İzmir),</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>In an attempt to establish control over the power vacuum in Anatolia, the Allies persuaded Greek Prime Minister Eleftherios Venizelos to launch an expeditionary force into Anatolia and occupy Smyrna (Izmir), beginning the Turkish War of Independence.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>In an attempt to establish control over the power vacuum in Anatolia, the Allies persuaded Greek Prime Minister Eleftherios Venizelos to launch an expeditionary force into Anatolia and occupy Smyrna (İzmir), beginning the Turkish War of Independence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Erdogan</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Erdoğan</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>In 2014, Erdogan became the country's first directly elected president.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>In 2014, Erdoğan became the country's first directly elected president.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Erdogan</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Erdoğan</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Recep Tayyip Erdogan was born on 26 February 1954 in Kasimpasa, Beyoglu to a modest conservative Muslim family.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Recep Tayyip Erdoğan was born on 26 February 1954 in Kasımpaşa, Beyoğlu to a modest conservative Muslim family.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(Istanbul).</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>(İstanbul).</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>These campaigns were directed against Greece in the west, Armenia in the east, France in the south, loyalists and separatists in various cities, and British and Ottoman troops around Constantinople (Istanbul).</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>These campaigns were directed against Greece in the west, Armenia in the east, France in the south, loyalists and separatists in various cities, and British and Ottoman troops around Constantinople (İstanbul).</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nurdagi</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Nurdağı</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>The destruction was reportedly much higher in the rural districts of Nurdagi and Islahiye, although a number of historic sites within the city such as mosques and Gaziantep Castle also suffered significant damages.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>The destruction was reportedly much higher in the rural districts of Nurdağı and Islahiye, although a number of historic sites within the city such as mosques and Gaziantep Castle also suffered significant damages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Osterreich),</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Österreich),</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>The chancellor of Austria, officially the federal chancellor of the Republic of Austria (German: Bundeskanzler der Republik Osterreich), is the head of government of the Republic of Austria.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>The chancellor of Austria, officially the federal chancellor of the Republic of Austria (German: Bundeskanzler der Republik Österreich), is the head of government of the Republic of Austria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Isleri</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>İşleri</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Turkey's actions related with religion are carefully analyzed and evaluated through the Presidency of Religious Affairs (Diyanet Isleri Baskanligi or simply Diyanet).</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Turkey's actions related with religion are carefully analyzed and evaluated through the Presidency of Religious Affairs (Diyanet İşleri Başkanlığı or simply Diyanet).</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Kutahya-Eskisehir</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Kütahya-Eskişehir</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>The Greeks emerged victorious in the Battle of Kutahya-Eskisehir and drove on Ankara.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>The Greeks emerged victorious in the Battle of Kütahya-Eskişehir and drove on Ankara.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Turkce</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Türkçe</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>The everyday Turkish, known as kaba Turkce or 'vulgar Turkish', spoken by the less-educated, lower and also rural members of Ottoman society, contained a higher percentage of native vocabulary and served as the basis for the modern Turkish language.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>The everyday Turkish, known as kaba Türkçe or 'vulgar Turkish', spoken by the less-educated, lower and also rural members of Ottoman society, contained a higher percentage of native vocabulary and served as the basis for the modern Turkish language.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Francois</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>François</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>The current president is Emmanuel Macron, who succeeded Francois Hollande on 14 May 2017 following the 2017 presidential election, and was inaugurated for a second term on 7 May 2022 following the 2022 presidential election.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>The current president is Emmanuel Macron, who succeeded François Hollande on 14 May 2017 following the 2017 presidential election, and was inaugurated for a second term on 7 May 2022 following the 2022 presidential election.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>deascii</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Izmir</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Izmir is the third most populous city in Turkey, after Istanbul and Ankara.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>İzmir is the third most populous city in Turkey, after Istanbul and Ankara.</t>
         </is>
       </c>
     </row>
